--- a/_Lang_Korean/Lang/KR/Game/Quest.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Quest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="725">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">main</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Main Quest</t>
@@ -1729,7 +1729,7 @@
   <si>
     <t xml:space="preserve">とにかく大至急#3まで送ってもらいたい人がいる{のだ}。報酬は#1{だ}。くれぐれも期限を過ぎないよう注意して{くれ}。
 言わなくてもわかっている{な}？そう、あの人がもうすぐ病気で死んでしまう{のだ}。#3に、最後に思い出の街#3に連れて行ってやりたい{のだ}！どうか引き受けて{くれ}。
-大変{だ}！私の親父がもの凄い猛毒に犯されてしまった{のだ}！{たのむ}、#3に住むといわれる名医まで、大至急連れて行って{くれ}！私の全財産ともいうべき#1を謝礼に用意して{ある}！</t>
+大変{だ}！私の親父がもの凄い猛毒に冒されてしまった{のだ}！{たのむ}、#3に住むといわれる名医まで、大至急連れて行って{くれ}！私の全財産ともいうべき#1を謝礼に用意して{ある}！</t>
   </si>
   <si>
     <t xml:space="preserve">track_craft</t>
@@ -5972,7 +5972,7 @@
         <v>508</v>
       </c>
       <c r="B128" t="s">
-        <v>539</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>621</v>

--- a/_Lang_Korean/Lang/KR/Game/Quest.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Quest.xlsx
@@ -835,7 +835,7 @@
     <t xml:space="preserve">exploration1</t>
   </si>
   <si>
-    <t xml:space="preserve">|나이미르에서 패리스라는 이름의 소리꾼을 만났다. 홈에서 그녀와 대화하면 뭔가 정보를 얻을 수 있을 것 같다.</t>
+    <t xml:space="preserve">|나이미르에서 패리스라는 이름의 노래꾼을 만났다. 홈에서 그녀와 대화하면 뭔가 정보를 얻을 수 있을 것 같다.</t>
   </si>
   <si>
     <t xml:space="preserve">|You met Farris, a talesinger while exploring Nymelle. You may get some information from her if you talk to her in your home.
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">farris_tulip</t>
   </si>
   <si>
-    <t xml:space="preserve">소리꾼의 배려</t>
+    <t xml:space="preserve">노래꾼의 배려</t>
   </si>
   <si>
     <t xml:space="preserve">Talesinger's Consideration</t>
@@ -9211,7 +9211,7 @@
       <selection pane="bottomLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="86.76"/>

--- a/_Lang_Korean/Lang/KR/Game/Quest.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Quest.xlsx
@@ -938,7 +938,7 @@
     <t xml:space="preserve">ティリス議会</t>
   </si>
   <si>
-    <t xml:space="preserve">티리스 의회에 대해 알려줄게.|노스티리스에는 매월 티리스 연맹이 주최하는 평의회가 열린다. 일단 여러 의원과 실제로  이야기를 나눠, 그들에게 얼굴도장을 찍으라는 조언을 받았다.</t>
+    <t xml:space="preserve">티리스 의회에 대해 알려줄게.|노스티리스에는 매월 티리스 연맹이 주최하는 평의회가 열린다. 일단 여러 의원과 실제로 이야기를 나눠, 그들에게 얼굴도장을 찍으라는 조언을 받았다.</t>
   </si>
   <si>
     <t xml:space="preserve">Have you ever heard of the Tyris Council? |In North Tyris, the Tyris Union holds a monthly council meeting. you were advised to talk to several council members first to get to know them better.</t>
@@ -1676,10 +1676,10 @@
 友情の証</t>
   </si>
   <si>
-    <t xml:space="preserve">#3에 갈 생각이야? 오랫동안 보지 못한 [qFriend]에게, #2을(를) 가는 김에 이 물건을 건네 줬으면 좋겠어. 물론 사례는 할게。
+    <t xml:space="preserve">#3에 갈 생각이야? 오랫동안 보지 못한 [qFriend]에게, #2을(를) 가는 김에 이 물건을 건네 줬으면 좋겠어. 물론 사례는 할게.
 너는 알고 있니? #3에는 지금 #2 피버가 열리고 있어서 사람들이 열광하고 있다는 듯 해. #2을(를) 갖지 못한 [qFriend]이(가) 자꾸 울음을 터뜨려서 참 곤란한데, 저기 나 대신에 #3에게 이 물건을 배달해 줘.
 #3까지 #2을(를) 배달해줘. 기한 내에 무사히 전달하면, 배달 목적지에서 보수로 #1을(를) 줄거야.
-[qFriend]이(가) #3에서 집을 지어서, 축하 선물로 #2을(를)  보내고싶어. #1까지 배달해주지 않을래?
+[qFriend]이(가) #3에서 집을 지어서, 축하 선물로 #2을(를) 보내고싶어. #1까지 배달해주지 않을래?
 배달 의뢰야. 뭐에 쓸려는지는 모르겠는데, [qClient]이(가) #2을(를) 구입하고 싶다는 듯 해. #3까지 배달 해주면 #1을(를) 지불할게.
 알고 있니? #3에서 살고 있는 [qClient]이(가) 폐품을 회수하고 있다는 듯 해. #2을(를) 보내고 싶지만, 귀찮으니까 니가 대신 배달해줘.
 #3에 살고있는 무서운 뉴비 [qClient]이(가), #2을(를) 연구하고 있다는 듯 해. 이#2을(를) 무사하게 배달해주면, 보수로 #1을(를) 줄게。
@@ -9206,12 +9206,12 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2578125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="86.76"/>
@@ -11382,7 +11382,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="1071.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>537</v>
       </c>
